--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3083.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3083.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.115469841629267</v>
+        <v>1.280843734741211</v>
       </c>
       <c r="B1">
-        <v>2.372806470363215</v>
+        <v>2.28861141204834</v>
       </c>
       <c r="C1">
-        <v>4.175790525145495</v>
+        <v>4.704154491424561</v>
       </c>
       <c r="D1">
-        <v>3.799176820238273</v>
+        <v>3.029700040817261</v>
       </c>
       <c r="E1">
-        <v>1.282585795182304</v>
+        <v>1.342018365859985</v>
       </c>
     </row>
   </sheetData>
